--- a/artfynd/A 45111-2021.xlsx
+++ b/artfynd/A 45111-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1068,6 +1068,1519 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>111943984</v>
+      </c>
+      <c r="B5" t="n">
+        <v>99413</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>682929.3627028114</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6694685.271877083</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>111943979</v>
+      </c>
+      <c r="B6" t="n">
+        <v>96253</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>504</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Guckusko</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cypripedium calceolus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>682878.8271195606</v>
+      </c>
+      <c r="R6" t="n">
+        <v>6694406.550233844</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>111943983</v>
+      </c>
+      <c r="B7" t="n">
+        <v>90678</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4366</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Skarp dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Hydnellum peckii</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Banker</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>682871.1304590552</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6694480.539619928</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>111943988</v>
+      </c>
+      <c r="B8" t="n">
+        <v>107033</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>220320</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ängsskära</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Serratula tinctoria</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>682930.0967543643</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6694720.015570021</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111943992</v>
+      </c>
+      <c r="B9" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>682866.8554180798</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6694644.443727687</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111943995</v>
+      </c>
+      <c r="B10" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>682779.1674098044</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6694551.279700429</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111943996</v>
+      </c>
+      <c r="B11" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>682785.3360249697</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6694547.127516991</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111943999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>99413</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>221235</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vårärt</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Lathyrus vernus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(L.) Bernh.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>682757.1772001419</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6694405.884787144</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111943990</v>
+      </c>
+      <c r="B13" t="n">
+        <v>101703</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>222412</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tibast</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Daphne mezereum</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>682930.0967543643</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6694720.015570021</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111943997</v>
+      </c>
+      <c r="B14" t="n">
+        <v>96326</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>219798</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Epipactis helleborine</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(L.) Crantz</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>682780.8405377725</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6694488.393080305</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111943998</v>
+      </c>
+      <c r="B15" t="n">
+        <v>98535</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>222498</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Hepatica nobilis</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Schreb.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>682757.1772001419</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6694405.884787144</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111943980</v>
+      </c>
+      <c r="B16" t="n">
+        <v>89183</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>3215</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Rödgul trumpetsvamp</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Craterellus lutescens</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>682877.1417635784</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6694410.432217407</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111943981</v>
+      </c>
+      <c r="B17" t="n">
+        <v>96253</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>504</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Guckusko</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Cypripedium calceolus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Stenfjärden SV, Upl</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>682877.1417635784</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6694410.432217407</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Uppsala</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Östhammar</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Börstil</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-05</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Karin Wiklund</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Länsstyrelsen i Uppsala län, områdesskydd</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 45111-2021.xlsx
+++ b/artfynd/A 45111-2021.xlsx
@@ -1070,10 +1070,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943984</v>
+        <v>111943983</v>
       </c>
       <c r="B5" t="n">
-        <v>99413</v>
+        <v>90678</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,21 +1086,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221235</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>682929.3627028114</v>
+        <v>682871.1304590552</v>
       </c>
       <c r="R5" t="n">
-        <v>6694685.271877083</v>
+        <v>6694480.539619928</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1302,10 +1302,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943983</v>
+        <v>111943980</v>
       </c>
       <c r="B7" t="n">
-        <v>90678</v>
+        <v>89183</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1318,21 +1318,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4366</v>
+        <v>3215</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>682871.1304590552</v>
+        <v>682877.1417635784</v>
       </c>
       <c r="R7" t="n">
-        <v>6694480.539619928</v>
+        <v>6694410.432217407</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943988</v>
+        <v>111943992</v>
       </c>
       <c r="B8" t="n">
-        <v>107033</v>
+        <v>89183</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1430,25 +1430,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220320</v>
+        <v>3215</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ängsskära</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Serratula tinctoria</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1458,10 +1458,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>682930.0967543643</v>
+        <v>682866.8554180798</v>
       </c>
       <c r="R8" t="n">
-        <v>6694720.015570021</v>
+        <v>6694644.443727687</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943992</v>
+        <v>111943998</v>
       </c>
       <c r="B9" t="n">
-        <v>89183</v>
+        <v>98535</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3215</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682866.8554180798</v>
+        <v>682757.1772001419</v>
       </c>
       <c r="R9" t="n">
-        <v>6694644.443727687</v>
+        <v>6694405.884787144</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1650,10 +1650,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943995</v>
+        <v>111943990</v>
       </c>
       <c r="B10" t="n">
-        <v>88899</v>
+        <v>101703</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1662,25 +1662,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3286</v>
+        <v>222412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1690,10 +1690,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>682779.1674098044</v>
+        <v>682930.0967543643</v>
       </c>
       <c r="R10" t="n">
-        <v>6694551.279700429</v>
+        <v>6694720.015570021</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943996</v>
+        <v>111943995</v>
       </c>
       <c r="B11" t="n">
-        <v>90332</v>
+        <v>88899</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1778,25 +1778,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1806,10 +1806,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>682785.3360249697</v>
+        <v>682779.1674098044</v>
       </c>
       <c r="R11" t="n">
-        <v>6694547.127516991</v>
+        <v>6694551.279700429</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,10 +1882,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943999</v>
+        <v>111943988</v>
       </c>
       <c r="B12" t="n">
-        <v>99413</v>
+        <v>107033</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1894,25 +1894,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221235</v>
+        <v>220320</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Ängsskära</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Serratula tinctoria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>682757.1772001419</v>
+        <v>682930.0967543643</v>
       </c>
       <c r="R12" t="n">
-        <v>6694405.884787144</v>
+        <v>6694720.015570021</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1998,10 +1998,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943990</v>
+        <v>111943996</v>
       </c>
       <c r="B13" t="n">
-        <v>101703</v>
+        <v>90332</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2014,21 +2014,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222412</v>
+        <v>4769</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2038,10 +2038,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>682930.0967543643</v>
+        <v>682785.3360249697</v>
       </c>
       <c r="R13" t="n">
-        <v>6694720.015570021</v>
+        <v>6694547.127516991</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943998</v>
+        <v>111943981</v>
       </c>
       <c r="B15" t="n">
-        <v>98535</v>
+        <v>96253</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2251,21 +2251,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222498</v>
+        <v>504</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>682757.1772001419</v>
+        <v>682877.1417635784</v>
       </c>
       <c r="R15" t="n">
-        <v>6694405.884787144</v>
+        <v>6694410.432217407</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943980</v>
+        <v>111943984</v>
       </c>
       <c r="B16" t="n">
-        <v>89183</v>
+        <v>99413</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2367,21 +2367,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>3215</v>
+        <v>221235</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>682877.1417635784</v>
+        <v>682929.3627028114</v>
       </c>
       <c r="R16" t="n">
-        <v>6694410.432217407</v>
+        <v>6694685.271877083</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943981</v>
+        <v>111943999</v>
       </c>
       <c r="B17" t="n">
-        <v>96253</v>
+        <v>99413</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2483,21 +2483,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>504</v>
+        <v>221235</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>682877.1417635784</v>
+        <v>682757.1772001419</v>
       </c>
       <c r="R17" t="n">
-        <v>6694410.432217407</v>
+        <v>6694405.884787144</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 45111-2021.xlsx
+++ b/artfynd/A 45111-2021.xlsx
@@ -1070,10 +1070,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943983</v>
+        <v>111943990</v>
       </c>
       <c r="B5" t="n">
-        <v>90678</v>
+        <v>101703</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,21 +1086,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>222412</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>682871.1304590552</v>
+        <v>682930.0967543643</v>
       </c>
       <c r="R5" t="n">
-        <v>6694480.539619928</v>
+        <v>6694720.015570021</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1186,10 +1186,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943979</v>
+        <v>111943980</v>
       </c>
       <c r="B6" t="n">
-        <v>96253</v>
+        <v>89183</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1202,21 +1202,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>504</v>
+        <v>3215</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>682878.8271195606</v>
+        <v>682877.1417635784</v>
       </c>
       <c r="R6" t="n">
-        <v>6694406.550233844</v>
+        <v>6694410.432217407</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1302,10 +1302,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943980</v>
+        <v>111943997</v>
       </c>
       <c r="B7" t="n">
-        <v>89183</v>
+        <v>96326</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1318,34 +1318,39 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3215</v>
+        <v>219798</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>682877.1417635784</v>
+        <v>682780.8405377725</v>
       </c>
       <c r="R7" t="n">
-        <v>6694410.432217407</v>
+        <v>6694488.393080305</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1418,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943992</v>
+        <v>111943995</v>
       </c>
       <c r="B8" t="n">
-        <v>89183</v>
+        <v>88899</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1430,25 +1435,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3215</v>
+        <v>3286</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1458,10 +1463,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>682866.8554180798</v>
+        <v>682779.1674098044</v>
       </c>
       <c r="R8" t="n">
-        <v>6694644.443727687</v>
+        <v>6694551.279700429</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1534,10 +1539,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943998</v>
+        <v>111943988</v>
       </c>
       <c r="B9" t="n">
-        <v>98535</v>
+        <v>107033</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1546,25 +1551,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>220320</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ängsskära</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Serratula tinctoria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1579,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682757.1772001419</v>
+        <v>682930.0967543643</v>
       </c>
       <c r="R9" t="n">
-        <v>6694405.884787144</v>
+        <v>6694720.015570021</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1650,10 +1655,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943990</v>
+        <v>111943984</v>
       </c>
       <c r="B10" t="n">
-        <v>101703</v>
+        <v>99413</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1666,21 +1671,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222412</v>
+        <v>221235</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1690,10 +1695,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>682930.0967543643</v>
+        <v>682929.3627028114</v>
       </c>
       <c r="R10" t="n">
-        <v>6694720.015570021</v>
+        <v>6694685.271877083</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1766,10 +1771,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943995</v>
+        <v>111943999</v>
       </c>
       <c r="B11" t="n">
-        <v>88899</v>
+        <v>99413</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1778,25 +1783,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3286</v>
+        <v>221235</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1806,10 +1811,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>682779.1674098044</v>
+        <v>682757.1772001419</v>
       </c>
       <c r="R11" t="n">
-        <v>6694551.279700429</v>
+        <v>6694405.884787144</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,10 +1887,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943988</v>
+        <v>111943996</v>
       </c>
       <c r="B12" t="n">
-        <v>107033</v>
+        <v>90332</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1894,25 +1899,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220320</v>
+        <v>4769</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ängsskära</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Serratula tinctoria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1922,10 +1927,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>682930.0967543643</v>
+        <v>682785.3360249697</v>
       </c>
       <c r="R12" t="n">
-        <v>6694720.015570021</v>
+        <v>6694547.127516991</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1998,10 +2003,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943996</v>
+        <v>111943981</v>
       </c>
       <c r="B13" t="n">
-        <v>90332</v>
+        <v>96253</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2014,21 +2019,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4769</v>
+        <v>504</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2038,10 +2043,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>682785.3360249697</v>
+        <v>682877.1417635784</v>
       </c>
       <c r="R13" t="n">
-        <v>6694547.127516991</v>
+        <v>6694410.432217407</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2114,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943997</v>
+        <v>111943979</v>
       </c>
       <c r="B14" t="n">
-        <v>96326</v>
+        <v>96253</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2130,39 +2135,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219798</v>
+        <v>504</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>682780.8405377725</v>
+        <v>682878.8271195606</v>
       </c>
       <c r="R14" t="n">
-        <v>6694488.393080305</v>
+        <v>6694406.550233844</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943981</v>
+        <v>111943998</v>
       </c>
       <c r="B15" t="n">
-        <v>96253</v>
+        <v>98535</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2251,21 +2251,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>504</v>
+        <v>222498</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>682877.1417635784</v>
+        <v>682757.1772001419</v>
       </c>
       <c r="R15" t="n">
-        <v>6694410.432217407</v>
+        <v>6694405.884787144</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943984</v>
+        <v>111943983</v>
       </c>
       <c r="B16" t="n">
-        <v>99413</v>
+        <v>90678</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2367,21 +2367,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221235</v>
+        <v>4366</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>682929.3627028114</v>
+        <v>682871.1304590552</v>
       </c>
       <c r="R16" t="n">
-        <v>6694685.271877083</v>
+        <v>6694480.539619928</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943999</v>
+        <v>111943992</v>
       </c>
       <c r="B17" t="n">
-        <v>99413</v>
+        <v>89183</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2483,21 +2483,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>221235</v>
+        <v>3215</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>682757.1772001419</v>
+        <v>682866.8554180798</v>
       </c>
       <c r="R17" t="n">
-        <v>6694405.884787144</v>
+        <v>6694644.443727687</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 45111-2021.xlsx
+++ b/artfynd/A 45111-2021.xlsx
@@ -1070,10 +1070,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943990</v>
+        <v>111943997</v>
       </c>
       <c r="B5" t="n">
-        <v>101703</v>
+        <v>96326</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,34 +1086,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>222412</v>
+        <v>219798</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>682930.0967543643</v>
+        <v>682780.8405377725</v>
       </c>
       <c r="R5" t="n">
-        <v>6694720.015570021</v>
+        <v>6694488.393080305</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1186,7 +1191,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943980</v>
+        <v>111943992</v>
       </c>
       <c r="B6" t="n">
         <v>89183</v>
@@ -1226,10 +1231,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>682877.1417635784</v>
+        <v>682866.8554180798</v>
       </c>
       <c r="R6" t="n">
-        <v>6694410.432217407</v>
+        <v>6694644.443727687</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1302,10 +1307,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943997</v>
+        <v>111943999</v>
       </c>
       <c r="B7" t="n">
-        <v>96326</v>
+        <v>99413</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1318,39 +1323,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219798</v>
+        <v>221235</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>682780.8405377725</v>
+        <v>682757.1772001419</v>
       </c>
       <c r="R7" t="n">
-        <v>6694488.393080305</v>
+        <v>6694405.884787144</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1423,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943995</v>
+        <v>111943988</v>
       </c>
       <c r="B8" t="n">
-        <v>88899</v>
+        <v>107033</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1439,21 +1439,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3286</v>
+        <v>220320</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Ängsskära</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Serratula tinctoria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1463,10 +1463,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>682779.1674098044</v>
+        <v>682930.0967543643</v>
       </c>
       <c r="R8" t="n">
-        <v>6694551.279700429</v>
+        <v>6694720.015570021</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1539,10 +1539,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943988</v>
+        <v>111943996</v>
       </c>
       <c r="B9" t="n">
-        <v>107033</v>
+        <v>90332</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1551,25 +1551,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220320</v>
+        <v>4769</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ängsskära</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Serratula tinctoria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682930.0967543643</v>
+        <v>682785.3360249697</v>
       </c>
       <c r="R9" t="n">
-        <v>6694720.015570021</v>
+        <v>6694547.127516991</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1655,10 +1655,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943984</v>
+        <v>111943990</v>
       </c>
       <c r="B10" t="n">
-        <v>99413</v>
+        <v>101703</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1671,21 +1671,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221235</v>
+        <v>222412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1695,10 +1695,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>682929.3627028114</v>
+        <v>682930.0967543643</v>
       </c>
       <c r="R10" t="n">
-        <v>6694685.271877083</v>
+        <v>6694720.015570021</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1771,10 +1771,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943999</v>
+        <v>111943983</v>
       </c>
       <c r="B11" t="n">
-        <v>99413</v>
+        <v>90678</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1787,21 +1787,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221235</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1811,10 +1811,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>682757.1772001419</v>
+        <v>682871.1304590552</v>
       </c>
       <c r="R11" t="n">
-        <v>6694405.884787144</v>
+        <v>6694480.539619928</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1887,10 +1887,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943996</v>
+        <v>111943984</v>
       </c>
       <c r="B12" t="n">
-        <v>90332</v>
+        <v>99413</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1903,21 +1903,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1927,10 +1927,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>682785.3360249697</v>
+        <v>682929.3627028114</v>
       </c>
       <c r="R12" t="n">
-        <v>6694547.127516991</v>
+        <v>6694685.271877083</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943981</v>
+        <v>111943998</v>
       </c>
       <c r="B13" t="n">
-        <v>96253</v>
+        <v>98535</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2019,21 +2019,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>504</v>
+        <v>222498</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>682877.1417635784</v>
+        <v>682757.1772001419</v>
       </c>
       <c r="R13" t="n">
-        <v>6694410.432217407</v>
+        <v>6694405.884787144</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943979</v>
+        <v>111943980</v>
       </c>
       <c r="B14" t="n">
-        <v>96253</v>
+        <v>89183</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2135,21 +2135,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>504</v>
+        <v>3215</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>682878.8271195606</v>
+        <v>682877.1417635784</v>
       </c>
       <c r="R14" t="n">
-        <v>6694406.550233844</v>
+        <v>6694410.432217407</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943998</v>
+        <v>111943995</v>
       </c>
       <c r="B15" t="n">
-        <v>98535</v>
+        <v>88899</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2247,25 +2247,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>682757.1772001419</v>
+        <v>682779.1674098044</v>
       </c>
       <c r="R15" t="n">
-        <v>6694405.884787144</v>
+        <v>6694551.279700429</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943983</v>
+        <v>111943981</v>
       </c>
       <c r="B16" t="n">
-        <v>90678</v>
+        <v>96253</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2367,21 +2367,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4366</v>
+        <v>504</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>682871.1304590552</v>
+        <v>682877.1417635784</v>
       </c>
       <c r="R16" t="n">
-        <v>6694480.539619928</v>
+        <v>6694410.432217407</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943992</v>
+        <v>111943979</v>
       </c>
       <c r="B17" t="n">
-        <v>89183</v>
+        <v>96253</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2483,21 +2483,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3215</v>
+        <v>504</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>682866.8554180798</v>
+        <v>682878.8271195606</v>
       </c>
       <c r="R17" t="n">
-        <v>6694644.443727687</v>
+        <v>6694406.550233844</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 45111-2021.xlsx
+++ b/artfynd/A 45111-2021.xlsx
@@ -1070,10 +1070,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943997</v>
+        <v>111943996</v>
       </c>
       <c r="B5" t="n">
-        <v>96326</v>
+        <v>90332</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,39 +1086,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219798</v>
+        <v>4769</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>682780.8405377725</v>
+        <v>682785.3360249697</v>
       </c>
       <c r="R5" t="n">
-        <v>6694488.393080305</v>
+        <v>6694547.127516991</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1191,10 +1186,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943992</v>
+        <v>111943988</v>
       </c>
       <c r="B6" t="n">
-        <v>89183</v>
+        <v>107033</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1203,25 +1198,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3215</v>
+        <v>220320</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Ängsskära</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Serratula tinctoria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1231,10 +1226,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>682866.8554180798</v>
+        <v>682930.0967543643</v>
       </c>
       <c r="R6" t="n">
-        <v>6694644.443727687</v>
+        <v>6694720.015570021</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1307,10 +1302,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943999</v>
+        <v>111943979</v>
       </c>
       <c r="B7" t="n">
-        <v>99413</v>
+        <v>96253</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1323,21 +1318,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221235</v>
+        <v>504</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1347,10 +1342,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>682757.1772001419</v>
+        <v>682878.8271195606</v>
       </c>
       <c r="R7" t="n">
-        <v>6694405.884787144</v>
+        <v>6694406.550233844</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1423,10 +1418,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943988</v>
+        <v>111943992</v>
       </c>
       <c r="B8" t="n">
-        <v>107033</v>
+        <v>89183</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1435,25 +1430,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220320</v>
+        <v>3215</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ängsskära</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Serratula tinctoria</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1463,10 +1458,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>682930.0967543643</v>
+        <v>682866.8554180798</v>
       </c>
       <c r="R8" t="n">
-        <v>6694720.015570021</v>
+        <v>6694644.443727687</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1539,10 +1534,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943996</v>
+        <v>111943990</v>
       </c>
       <c r="B9" t="n">
-        <v>90332</v>
+        <v>101703</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1555,21 +1550,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1579,10 +1574,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682785.3360249697</v>
+        <v>682930.0967543643</v>
       </c>
       <c r="R9" t="n">
-        <v>6694547.127516991</v>
+        <v>6694720.015570021</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1655,10 +1650,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943990</v>
+        <v>111943983</v>
       </c>
       <c r="B10" t="n">
-        <v>101703</v>
+        <v>90678</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1671,21 +1666,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222412</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1695,10 +1690,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>682930.0967543643</v>
+        <v>682871.1304590552</v>
       </c>
       <c r="R10" t="n">
-        <v>6694720.015570021</v>
+        <v>6694480.539619928</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1771,10 +1766,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943983</v>
+        <v>111943998</v>
       </c>
       <c r="B11" t="n">
-        <v>90678</v>
+        <v>98535</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1787,21 +1782,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1811,10 +1806,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>682871.1304590552</v>
+        <v>682757.1772001419</v>
       </c>
       <c r="R11" t="n">
-        <v>6694480.539619928</v>
+        <v>6694405.884787144</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -2003,10 +1998,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943998</v>
+        <v>111943980</v>
       </c>
       <c r="B13" t="n">
-        <v>98535</v>
+        <v>89183</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2019,21 +2014,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2043,10 +2038,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>682757.1772001419</v>
+        <v>682877.1417635784</v>
       </c>
       <c r="R13" t="n">
-        <v>6694405.884787144</v>
+        <v>6694410.432217407</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2119,10 +2114,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943980</v>
+        <v>111943997</v>
       </c>
       <c r="B14" t="n">
-        <v>89183</v>
+        <v>96326</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2135,34 +2130,39 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3215</v>
+        <v>219798</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>682877.1417635784</v>
+        <v>682780.8405377725</v>
       </c>
       <c r="R14" t="n">
-        <v>6694410.432217407</v>
+        <v>6694488.393080305</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943995</v>
+        <v>111943981</v>
       </c>
       <c r="B15" t="n">
-        <v>88899</v>
+        <v>96253</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2247,25 +2247,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3286</v>
+        <v>504</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>682779.1674098044</v>
+        <v>682877.1417635784</v>
       </c>
       <c r="R15" t="n">
-        <v>6694551.279700429</v>
+        <v>6694410.432217407</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943981</v>
+        <v>111943999</v>
       </c>
       <c r="B16" t="n">
-        <v>96253</v>
+        <v>99413</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2367,21 +2367,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>504</v>
+        <v>221235</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>682877.1417635784</v>
+        <v>682757.1772001419</v>
       </c>
       <c r="R16" t="n">
-        <v>6694410.432217407</v>
+        <v>6694405.884787144</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943979</v>
+        <v>111943995</v>
       </c>
       <c r="B17" t="n">
-        <v>96253</v>
+        <v>88899</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2479,25 +2479,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>504</v>
+        <v>3286</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>682878.8271195606</v>
+        <v>682779.1674098044</v>
       </c>
       <c r="R17" t="n">
-        <v>6694406.550233844</v>
+        <v>6694551.279700429</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 45111-2021.xlsx
+++ b/artfynd/A 45111-2021.xlsx
@@ -1070,10 +1070,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943996</v>
+        <v>111943997</v>
       </c>
       <c r="B5" t="n">
-        <v>90332</v>
+        <v>96326</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,34 +1086,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4769</v>
+        <v>219798</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>682785.3360249697</v>
+        <v>682780.8405377725</v>
       </c>
       <c r="R5" t="n">
-        <v>6694547.127516991</v>
+        <v>6694488.393080305</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1186,10 +1191,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943988</v>
+        <v>111943984</v>
       </c>
       <c r="B6" t="n">
-        <v>107033</v>
+        <v>99413</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1198,25 +1203,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220320</v>
+        <v>221235</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ängsskära</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Serratula tinctoria</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1226,10 +1231,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>682930.0967543643</v>
+        <v>682929.3627028114</v>
       </c>
       <c r="R6" t="n">
-        <v>6694720.015570021</v>
+        <v>6694685.271877083</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1302,10 +1307,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943979</v>
+        <v>111943980</v>
       </c>
       <c r="B7" t="n">
-        <v>96253</v>
+        <v>89183</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1318,21 +1323,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>504</v>
+        <v>3215</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1342,10 +1347,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>682878.8271195606</v>
+        <v>682877.1417635784</v>
       </c>
       <c r="R7" t="n">
-        <v>6694406.550233844</v>
+        <v>6694410.432217407</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1418,10 +1423,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943992</v>
+        <v>111943988</v>
       </c>
       <c r="B8" t="n">
-        <v>89183</v>
+        <v>107033</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1430,25 +1435,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3215</v>
+        <v>220320</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Ängsskära</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Serratula tinctoria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1458,10 +1463,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>682866.8554180798</v>
+        <v>682930.0967543643</v>
       </c>
       <c r="R8" t="n">
-        <v>6694644.443727687</v>
+        <v>6694720.015570021</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1534,10 +1539,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943990</v>
+        <v>111943998</v>
       </c>
       <c r="B9" t="n">
-        <v>101703</v>
+        <v>98535</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1550,21 +1555,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222412</v>
+        <v>222498</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1574,10 +1579,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682930.0967543643</v>
+        <v>682757.1772001419</v>
       </c>
       <c r="R9" t="n">
-        <v>6694720.015570021</v>
+        <v>6694405.884787144</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1650,10 +1655,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943983</v>
+        <v>111943990</v>
       </c>
       <c r="B10" t="n">
-        <v>90678</v>
+        <v>101703</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1666,21 +1671,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>222412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1690,10 +1695,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>682871.1304590552</v>
+        <v>682930.0967543643</v>
       </c>
       <c r="R10" t="n">
-        <v>6694480.539619928</v>
+        <v>6694720.015570021</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1766,10 +1771,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943998</v>
+        <v>111943983</v>
       </c>
       <c r="B11" t="n">
-        <v>98535</v>
+        <v>90678</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1782,21 +1787,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222498</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1806,10 +1811,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>682757.1772001419</v>
+        <v>682871.1304590552</v>
       </c>
       <c r="R11" t="n">
-        <v>6694405.884787144</v>
+        <v>6694480.539619928</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,10 +1887,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943984</v>
+        <v>111943992</v>
       </c>
       <c r="B12" t="n">
-        <v>99413</v>
+        <v>89183</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1898,21 +1903,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>221235</v>
+        <v>3215</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1922,10 +1927,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>682929.3627028114</v>
+        <v>682866.8554180798</v>
       </c>
       <c r="R12" t="n">
-        <v>6694685.271877083</v>
+        <v>6694644.443727687</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1998,10 +2003,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943980</v>
+        <v>111943979</v>
       </c>
       <c r="B13" t="n">
-        <v>89183</v>
+        <v>96253</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2014,21 +2019,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3215</v>
+        <v>504</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2038,10 +2043,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>682877.1417635784</v>
+        <v>682878.8271195606</v>
       </c>
       <c r="R13" t="n">
-        <v>6694410.432217407</v>
+        <v>6694406.550233844</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2114,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943997</v>
+        <v>111943999</v>
       </c>
       <c r="B14" t="n">
-        <v>96326</v>
+        <v>99413</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2130,39 +2135,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>219798</v>
+        <v>221235</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>682780.8405377725</v>
+        <v>682757.1772001419</v>
       </c>
       <c r="R14" t="n">
-        <v>6694488.393080305</v>
+        <v>6694405.884787144</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2235,10 +2235,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943981</v>
+        <v>111943995</v>
       </c>
       <c r="B15" t="n">
-        <v>96253</v>
+        <v>88899</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2247,25 +2247,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>504</v>
+        <v>3286</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2275,10 +2275,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>682877.1417635784</v>
+        <v>682779.1674098044</v>
       </c>
       <c r="R15" t="n">
-        <v>6694410.432217407</v>
+        <v>6694551.279700429</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2351,10 +2351,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943999</v>
+        <v>111943981</v>
       </c>
       <c r="B16" t="n">
-        <v>99413</v>
+        <v>96253</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2367,21 +2367,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221235</v>
+        <v>504</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2391,10 +2391,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>682757.1772001419</v>
+        <v>682877.1417635784</v>
       </c>
       <c r="R16" t="n">
-        <v>6694405.884787144</v>
+        <v>6694410.432217407</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2467,10 +2467,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943995</v>
+        <v>111943996</v>
       </c>
       <c r="B17" t="n">
-        <v>88899</v>
+        <v>90332</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2479,25 +2479,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2507,10 +2507,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>682779.1674098044</v>
+        <v>682785.3360249697</v>
       </c>
       <c r="R17" t="n">
-        <v>6694551.279700429</v>
+        <v>6694547.127516991</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 45111-2021.xlsx
+++ b/artfynd/A 45111-2021.xlsx
@@ -1070,10 +1070,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943997</v>
+        <v>111943981</v>
       </c>
       <c r="B5" t="n">
-        <v>96326</v>
+        <v>96253</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,39 +1086,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219798</v>
+        <v>504</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>682780.8405377725</v>
+        <v>682877</v>
       </c>
       <c r="R5" t="n">
-        <v>6694488.393080305</v>
+        <v>6694410</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,19 +1143,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1191,10 +1176,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943984</v>
+        <v>111943998</v>
       </c>
       <c r="B6" t="n">
-        <v>99413</v>
+        <v>98535</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1207,21 +1192,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1231,10 +1216,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>682929.3627028114</v>
+        <v>682757</v>
       </c>
       <c r="R6" t="n">
-        <v>6694685.271877083</v>
+        <v>6694406</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1264,19 +1249,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1307,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943980</v>
+        <v>111943999</v>
       </c>
       <c r="B7" t="n">
-        <v>89183</v>
+        <v>99413</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1323,21 +1298,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3215</v>
+        <v>221235</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1347,10 +1322,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>682877.1417635784</v>
+        <v>682757</v>
       </c>
       <c r="R7" t="n">
-        <v>6694410.432217407</v>
+        <v>6694406</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1380,19 +1355,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1423,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943988</v>
+        <v>111943980</v>
       </c>
       <c r="B8" t="n">
-        <v>107033</v>
+        <v>89183</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1435,25 +1400,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220320</v>
+        <v>3215</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ängsskära</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Serratula tinctoria</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1463,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>682930.0967543643</v>
+        <v>682877</v>
       </c>
       <c r="R8" t="n">
-        <v>6694720.015570021</v>
+        <v>6694410</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1496,19 +1461,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1539,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943998</v>
+        <v>111943984</v>
       </c>
       <c r="B9" t="n">
-        <v>98535</v>
+        <v>99413</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1555,21 +1510,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222498</v>
+        <v>221235</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1579,10 +1534,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682757.1772001419</v>
+        <v>682929</v>
       </c>
       <c r="R9" t="n">
-        <v>6694405.884787144</v>
+        <v>6694685</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,19 +1567,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1655,10 +1600,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943990</v>
+        <v>111943995</v>
       </c>
       <c r="B10" t="n">
-        <v>101703</v>
+        <v>88899</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1667,25 +1612,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>222412</v>
+        <v>3286</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1695,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>682930.0967543643</v>
+        <v>682779</v>
       </c>
       <c r="R10" t="n">
-        <v>6694720.015570021</v>
+        <v>6694551</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1728,19 +1673,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1771,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943983</v>
+        <v>111943992</v>
       </c>
       <c r="B11" t="n">
-        <v>90678</v>
+        <v>89183</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1787,21 +1722,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>3215</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1811,10 +1746,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>682871.1304590552</v>
+        <v>682867</v>
       </c>
       <c r="R11" t="n">
-        <v>6694480.539619928</v>
+        <v>6694644</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1844,19 +1779,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1887,10 +1812,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943992</v>
+        <v>111943979</v>
       </c>
       <c r="B12" t="n">
-        <v>89183</v>
+        <v>96253</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1903,21 +1828,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3215</v>
+        <v>504</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1927,10 +1852,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>682866.8554180798</v>
+        <v>682879</v>
       </c>
       <c r="R12" t="n">
-        <v>6694644.443727687</v>
+        <v>6694407</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1960,19 +1885,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2003,10 +1918,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943979</v>
+        <v>111943988</v>
       </c>
       <c r="B13" t="n">
-        <v>96253</v>
+        <v>107033</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2015,20 +1930,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>504</v>
+        <v>220320</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Ängsskära</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Serratula tinctoria</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2043,10 +1958,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>682878.8271195606</v>
+        <v>682930</v>
       </c>
       <c r="R13" t="n">
-        <v>6694406.550233844</v>
+        <v>6694720</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2076,19 +1991,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2119,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943999</v>
+        <v>111943996</v>
       </c>
       <c r="B14" t="n">
-        <v>99413</v>
+        <v>90332</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2135,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221235</v>
+        <v>4769</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2159,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>682757.1772001419</v>
+        <v>682785</v>
       </c>
       <c r="R14" t="n">
-        <v>6694405.884787144</v>
+        <v>6694547</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2192,19 +2097,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2235,10 +2130,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943995</v>
+        <v>111943997</v>
       </c>
       <c r="B15" t="n">
-        <v>88899</v>
+        <v>96326</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2247,38 +2142,43 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3286</v>
+        <v>219798</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>682779.1674098044</v>
+        <v>682781</v>
       </c>
       <c r="R15" t="n">
-        <v>6694551.279700429</v>
+        <v>6694488</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2308,19 +2208,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2351,10 +2241,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943981</v>
+        <v>111943990</v>
       </c>
       <c r="B16" t="n">
-        <v>96253</v>
+        <v>101703</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2367,16 +2257,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>504</v>
+        <v>222412</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2391,10 +2281,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>682877.1417635784</v>
+        <v>682930</v>
       </c>
       <c r="R16" t="n">
-        <v>6694410.432217407</v>
+        <v>6694720</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2424,19 +2314,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2467,10 +2347,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943996</v>
+        <v>111943983</v>
       </c>
       <c r="B17" t="n">
-        <v>90332</v>
+        <v>90678</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2483,21 +2363,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4769</v>
+        <v>4366</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2507,10 +2387,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>682785.3360249697</v>
+        <v>682871</v>
       </c>
       <c r="R17" t="n">
-        <v>6694547.127516991</v>
+        <v>6694481</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2540,19 +2420,9 @@
           <t>2023-09-05</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-05</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">

--- a/artfynd/A 45111-2021.xlsx
+++ b/artfynd/A 45111-2021.xlsx
@@ -1070,10 +1070,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943981</v>
+        <v>111943980</v>
       </c>
       <c r="B5" t="n">
-        <v>96253</v>
+        <v>89317</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,21 +1086,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>504</v>
+        <v>3215</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943998</v>
+        <v>111943992</v>
       </c>
       <c r="B6" t="n">
-        <v>98535</v>
+        <v>89317</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1192,21 +1192,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222498</v>
+        <v>3215</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>682757</v>
+        <v>682867</v>
       </c>
       <c r="R6" t="n">
-        <v>6694406</v>
+        <v>6694644</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1282,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943999</v>
+        <v>111943979</v>
       </c>
       <c r="B7" t="n">
-        <v>99413</v>
+        <v>96625</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1298,21 +1298,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221235</v>
+        <v>504</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>682757</v>
+        <v>682879</v>
       </c>
       <c r="R7" t="n">
-        <v>6694406</v>
+        <v>6694407</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943980</v>
+        <v>111943996</v>
       </c>
       <c r="B8" t="n">
-        <v>89183</v>
+        <v>90466</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1404,21 +1404,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3215</v>
+        <v>4769</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>682877</v>
+        <v>682785</v>
       </c>
       <c r="R8" t="n">
-        <v>6694410</v>
+        <v>6694547</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943984</v>
+        <v>111943990</v>
       </c>
       <c r="B9" t="n">
-        <v>99413</v>
+        <v>102166</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,21 +1510,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221235</v>
+        <v>222412</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1534,10 +1534,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682929</v>
+        <v>682930</v>
       </c>
       <c r="R9" t="n">
-        <v>6694685</v>
+        <v>6694720</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1603,7 +1603,7 @@
         <v>111943995</v>
       </c>
       <c r="B10" t="n">
-        <v>88899</v>
+        <v>89033</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943992</v>
+        <v>111943984</v>
       </c>
       <c r="B11" t="n">
-        <v>89183</v>
+        <v>99850</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1722,21 +1722,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3215</v>
+        <v>221235</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>682867</v>
+        <v>682929</v>
       </c>
       <c r="R11" t="n">
-        <v>6694644</v>
+        <v>6694685</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943979</v>
+        <v>111943997</v>
       </c>
       <c r="B12" t="n">
-        <v>96253</v>
+        <v>96698</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1828,34 +1828,39 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>504</v>
+        <v>219798</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>682879</v>
+        <v>682781</v>
       </c>
       <c r="R12" t="n">
-        <v>6694407</v>
+        <v>6694488</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1918,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943988</v>
+        <v>111943981</v>
       </c>
       <c r="B13" t="n">
-        <v>107033</v>
+        <v>96625</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1930,20 +1935,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220320</v>
+        <v>504</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ängsskära</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Serratula tinctoria</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1958,10 +1963,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>682930</v>
+        <v>682877</v>
       </c>
       <c r="R13" t="n">
-        <v>6694720</v>
+        <v>6694410</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2024,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943996</v>
+        <v>111943999</v>
       </c>
       <c r="B14" t="n">
-        <v>90332</v>
+        <v>99850</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2040,21 +2045,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4769</v>
+        <v>221235</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2064,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>682785</v>
+        <v>682757</v>
       </c>
       <c r="R14" t="n">
-        <v>6694547</v>
+        <v>6694406</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2130,10 +2135,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943997</v>
+        <v>111943983</v>
       </c>
       <c r="B15" t="n">
-        <v>96326</v>
+        <v>90812</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2146,39 +2151,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219798</v>
+        <v>4366</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>682781</v>
+        <v>682871</v>
       </c>
       <c r="R15" t="n">
-        <v>6694488</v>
+        <v>6694481</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943990</v>
+        <v>111943988</v>
       </c>
       <c r="B16" t="n">
-        <v>101703</v>
+        <v>107547</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2253,20 +2253,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>222412</v>
+        <v>220320</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Ängsskära</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Serratula tinctoria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2347,10 +2347,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943983</v>
+        <v>111943998</v>
       </c>
       <c r="B17" t="n">
-        <v>90678</v>
+        <v>98961</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2363,21 +2363,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4366</v>
+        <v>222498</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2387,10 +2387,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>682871</v>
+        <v>682757</v>
       </c>
       <c r="R17" t="n">
-        <v>6694481</v>
+        <v>6694406</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 45111-2021.xlsx
+++ b/artfynd/A 45111-2021.xlsx
@@ -1070,10 +1070,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943980</v>
+        <v>111943983</v>
       </c>
       <c r="B5" t="n">
-        <v>89317</v>
+        <v>90826</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1086,21 +1086,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3215</v>
+        <v>4366</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>682877</v>
+        <v>682871</v>
       </c>
       <c r="R5" t="n">
-        <v>6694410</v>
+        <v>6694481</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943992</v>
+        <v>111943988</v>
       </c>
       <c r="B6" t="n">
-        <v>89317</v>
+        <v>107576</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1188,25 +1188,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3215</v>
+        <v>220320</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Ängsskära</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Serratula tinctoria</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>682867</v>
+        <v>682930</v>
       </c>
       <c r="R6" t="n">
-        <v>6694644</v>
+        <v>6694720</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1282,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943979</v>
+        <v>111943981</v>
       </c>
       <c r="B7" t="n">
-        <v>96625</v>
+        <v>96640</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>682879</v>
+        <v>682877</v>
       </c>
       <c r="R7" t="n">
-        <v>6694407</v>
+        <v>6694410</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943996</v>
+        <v>111943995</v>
       </c>
       <c r="B8" t="n">
-        <v>90466</v>
+        <v>89047</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,25 +1400,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4769</v>
+        <v>3286</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>682785</v>
+        <v>682779</v>
       </c>
       <c r="R8" t="n">
-        <v>6694547</v>
+        <v>6694551</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1497,7 +1497,7 @@
         <v>111943990</v>
       </c>
       <c r="B9" t="n">
-        <v>102166</v>
+        <v>102192</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943995</v>
+        <v>111943996</v>
       </c>
       <c r="B10" t="n">
-        <v>89033</v>
+        <v>90480</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1612,25 +1612,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>682779</v>
+        <v>682785</v>
       </c>
       <c r="R10" t="n">
-        <v>6694551</v>
+        <v>6694547</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1706,10 +1706,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943984</v>
+        <v>111943999</v>
       </c>
       <c r="B11" t="n">
-        <v>99850</v>
+        <v>99874</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1746,10 +1746,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>682929</v>
+        <v>682757</v>
       </c>
       <c r="R11" t="n">
-        <v>6694685</v>
+        <v>6694406</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1812,10 +1812,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943997</v>
+        <v>111943998</v>
       </c>
       <c r="B12" t="n">
-        <v>96698</v>
+        <v>98980</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1828,39 +1828,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>219798</v>
+        <v>222498</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>682781</v>
+        <v>682757</v>
       </c>
       <c r="R12" t="n">
-        <v>6694488</v>
+        <v>6694406</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1923,10 +1918,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943981</v>
+        <v>111943997</v>
       </c>
       <c r="B13" t="n">
-        <v>96625</v>
+        <v>96713</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,34 +1934,39 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>504</v>
+        <v>219798</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>682877</v>
+        <v>682781</v>
       </c>
       <c r="R13" t="n">
-        <v>6694410</v>
+        <v>6694488</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943999</v>
+        <v>111943992</v>
       </c>
       <c r="B14" t="n">
-        <v>99850</v>
+        <v>89331</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2045,21 +2045,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>221235</v>
+        <v>3215</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>682757</v>
+        <v>682867</v>
       </c>
       <c r="R14" t="n">
-        <v>6694406</v>
+        <v>6694644</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943983</v>
+        <v>111943980</v>
       </c>
       <c r="B15" t="n">
-        <v>90812</v>
+        <v>89331</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2151,21 +2151,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4366</v>
+        <v>3215</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>682871</v>
+        <v>682877</v>
       </c>
       <c r="R15" t="n">
-        <v>6694481</v>
+        <v>6694410</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943988</v>
+        <v>111943984</v>
       </c>
       <c r="B16" t="n">
-        <v>107547</v>
+        <v>99874</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2253,25 +2253,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220320</v>
+        <v>221235</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ängsskära</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Serratula tinctoria</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>682930</v>
+        <v>682929</v>
       </c>
       <c r="R16" t="n">
-        <v>6694720</v>
+        <v>6694685</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2347,10 +2347,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943998</v>
+        <v>111943979</v>
       </c>
       <c r="B17" t="n">
-        <v>98961</v>
+        <v>96640</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2363,21 +2363,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222498</v>
+        <v>504</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2387,10 +2387,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>682757</v>
+        <v>682879</v>
       </c>
       <c r="R17" t="n">
-        <v>6694406</v>
+        <v>6694407</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>

--- a/artfynd/A 45111-2021.xlsx
+++ b/artfynd/A 45111-2021.xlsx
@@ -1070,10 +1070,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111943983</v>
+        <v>111943988</v>
       </c>
       <c r="B5" t="n">
-        <v>90826</v>
+        <v>107576</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1082,25 +1082,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4366</v>
+        <v>220320</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Ängsskära</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Serratula tinctoria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>682871</v>
+        <v>682930</v>
       </c>
       <c r="R5" t="n">
-        <v>6694481</v>
+        <v>6694720</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1176,10 +1176,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111943988</v>
+        <v>111943983</v>
       </c>
       <c r="B6" t="n">
-        <v>107576</v>
+        <v>90826</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1188,25 +1188,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220320</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ängsskära</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Serratula tinctoria</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1216,10 +1216,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>682930</v>
+        <v>682871</v>
       </c>
       <c r="R6" t="n">
-        <v>6694720</v>
+        <v>6694481</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1282,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111943981</v>
+        <v>111943999</v>
       </c>
       <c r="B7" t="n">
-        <v>96640</v>
+        <v>99874</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1298,21 +1298,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>504</v>
+        <v>221235</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1322,10 +1322,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>682877</v>
+        <v>682757</v>
       </c>
       <c r="R7" t="n">
-        <v>6694410</v>
+        <v>6694406</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1388,10 +1388,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111943995</v>
+        <v>111943996</v>
       </c>
       <c r="B8" t="n">
-        <v>89047</v>
+        <v>90480</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1400,25 +1400,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3286</v>
+        <v>4769</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>682779</v>
+        <v>682785</v>
       </c>
       <c r="R8" t="n">
-        <v>6694551</v>
+        <v>6694547</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111943990</v>
+        <v>111943997</v>
       </c>
       <c r="B9" t="n">
-        <v>102192</v>
+        <v>96713</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1510,34 +1510,39 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>222412</v>
+        <v>219798</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tibast</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Daphne mezereum</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682930</v>
+        <v>682781</v>
       </c>
       <c r="R9" t="n">
-        <v>6694720</v>
+        <v>6694488</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1600,10 +1605,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111943996</v>
+        <v>111943990</v>
       </c>
       <c r="B10" t="n">
-        <v>90480</v>
+        <v>102192</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1616,21 +1621,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4769</v>
+        <v>222412</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tibast</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Daphne mezereum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1640,10 +1645,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>682785</v>
+        <v>682930</v>
       </c>
       <c r="R10" t="n">
-        <v>6694547</v>
+        <v>6694720</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1706,10 +1711,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111943999</v>
+        <v>111943980</v>
       </c>
       <c r="B11" t="n">
-        <v>99874</v>
+        <v>89331</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1722,21 +1727,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>221235</v>
+        <v>3215</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1746,10 +1751,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>682757</v>
+        <v>682877</v>
       </c>
       <c r="R11" t="n">
-        <v>6694406</v>
+        <v>6694410</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1812,10 +1817,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111943998</v>
+        <v>111943995</v>
       </c>
       <c r="B12" t="n">
-        <v>98980</v>
+        <v>89047</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1824,25 +1829,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>222498</v>
+        <v>3286</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1852,10 +1857,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>682757</v>
+        <v>682779</v>
       </c>
       <c r="R12" t="n">
-        <v>6694406</v>
+        <v>6694551</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1918,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111943997</v>
+        <v>111943984</v>
       </c>
       <c r="B13" t="n">
-        <v>96713</v>
+        <v>99874</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1934,39 +1939,34 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>219798</v>
+        <v>221235</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Vårärt</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Lathyrus vernus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(L.) Bernh.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
       <c r="P13" t="inlineStr">
         <is>
           <t>Stenfjärden SV, Upl</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>682781</v>
+        <v>682929</v>
       </c>
       <c r="R13" t="n">
-        <v>6694488</v>
+        <v>6694685</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2029,10 +2029,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111943992</v>
+        <v>111943981</v>
       </c>
       <c r="B14" t="n">
-        <v>89331</v>
+        <v>96640</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2045,21 +2045,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3215</v>
+        <v>504</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>682867</v>
+        <v>682877</v>
       </c>
       <c r="R14" t="n">
-        <v>6694644</v>
+        <v>6694410</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2135,10 +2135,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111943980</v>
+        <v>111943979</v>
       </c>
       <c r="B15" t="n">
-        <v>89331</v>
+        <v>96640</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2151,21 +2151,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3215</v>
+        <v>504</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>682877</v>
+        <v>682879</v>
       </c>
       <c r="R15" t="n">
-        <v>6694410</v>
+        <v>6694407</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2241,10 +2241,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111943984</v>
+        <v>111943998</v>
       </c>
       <c r="B16" t="n">
-        <v>99874</v>
+        <v>98980</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2257,21 +2257,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>221235</v>
+        <v>222498</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vårärt</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lathyrus vernus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Bernh.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2281,10 +2281,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>682929</v>
+        <v>682757</v>
       </c>
       <c r="R16" t="n">
-        <v>6694685</v>
+        <v>6694406</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2347,10 +2347,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111943979</v>
+        <v>111943992</v>
       </c>
       <c r="B17" t="n">
-        <v>96640</v>
+        <v>89331</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2363,21 +2363,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>504</v>
+        <v>3215</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2387,10 +2387,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>682879</v>
+        <v>682867</v>
       </c>
       <c r="R17" t="n">
-        <v>6694407</v>
+        <v>6694644</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
